--- a/Programming and Concepts/DSA 450/FINAL450.xlsx
+++ b/Programming and Concepts/DSA 450/FINAL450.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Programming\CP GIT\Competitive-Programming\Programming and Concepts\DSA 450\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679C74F2-E6AA-437F-B2FF-EE4D981D5B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="9550" windowHeight="5080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="487">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -52,9 +58,6 @@
     <t xml:space="preserve">Find the "Kth" max and min element of an array </t>
   </si>
   <si>
-    <t>Yes, Solved with T/C 0f 0(nlogn) , Pending work : check solution with T/C of o(n)</t>
-  </si>
-  <si>
     <t>Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo</t>
   </si>
   <si>
@@ -79,9 +82,6 @@
     <t>find Largest sum contiguous Subarray [V. IMP]</t>
   </si>
   <si>
-    <t>Naïve : O(n^2) ,                                                                             Efficient code : Kadane's Algorithm</t>
-  </si>
-  <si>
     <t>Minimise the maximum difference between heights [V.IMP]</t>
   </si>
   <si>
@@ -133,9 +133,6 @@
     <t>naïve approach to use extra space, efficient approach to use rotation to bring the number to its desired position, check code</t>
   </si>
   <si>
-    <t>Find if there is any subarray with sum equal to 0</t>
-  </si>
-  <si>
     <t>naïve solution n^2 check all subarray possible, efficient solution use hashing and store sum for 0th index to ith index if a recorded sum appears again then zero sum subarray exists</t>
   </si>
   <si>
@@ -1469,19 +1466,28 @@
   </si>
   <si>
     <t>Power Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes, Solved with T/C 0f 0(nlogn) , better approach is to use max heap of length k,  and remove max element if heap length exceeds K , and after traversing the array the element at top of heap is the biggest element among K element ie. Kth smallest element among them </t>
+  </si>
+  <si>
+    <t>Naïve : O(n^2) ,  Efficient code : Kadane's Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naïve: O(N^2) solution to check all combinations,   Efficient solution : use Map to store frequency of elements , and check that for each element arr[i] an element k - arr[i] exists or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transposed matrix  optimal solution remaining </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1566,151 +1572,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1743,192 +1606,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1956,251 +1639,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2208,7 +1652,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2222,7 +1666,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2244,70 +1688,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2565,32 +1969,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6666666666667" defaultRowHeight="21" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="68.8333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="164.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" spans="2:2">
+    <row r="1" spans="1:4" ht="26.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:4">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2609,7 +2013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="1:4">
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:4">
@@ -2619,24 +2023,24 @@
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="42" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="42" spans="1:4">
+    <row r="8" spans="1:4" ht="42">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -2645,19 +2049,19 @@
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="63" spans="1:4">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2665,22 +2069,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2688,132 +2092,135 @@
         <v>6</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="10"/>
+        <v>18</v>
+      </c>
+      <c r="C12" s="21"/>
       <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" ht="42" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C13" s="21"/>
       <c r="D13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" ht="42" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C16" s="21"/>
       <c r="D16" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" ht="42" spans="1:4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" ht="63" spans="1:4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="42">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
+        <v>32</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2821,55 +2228,55 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" ht="63" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="63" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="42">
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" ht="42" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2877,772 +2284,775 @@
         <v>6</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" ht="42" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" ht="63" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>18</v>
+        <v>46</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" ht="63" spans="1:4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="42">
       <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3">
+        <v>57</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="B42" s="18"/>
       <c r="C42" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" s="18"/>
       <c r="C43" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="C46" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="C47" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="C48" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="C49" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="C50" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="C51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="C52" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="C53" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="8"/>
       <c r="B55" s="18"/>
       <c r="C55" s="12"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="C57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C59" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="C60" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="18" t="s">
+      <c r="C61" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="C62" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="C63" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="C64" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -3652,1187 +3062,1187 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B103" s="9" t="s">
-        <v>121</v>
-      </c>
       <c r="C103" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C126" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="138" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="B138" s="18"/>
       <c r="C138" s="12"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>18</v>
+        <v>153</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B141" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="C141" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B164" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B165" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C171" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="B176" s="18"/>
       <c r="C176" s="12"/>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C177" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C178" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>195</v>
-      </c>
       <c r="C179" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C184" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B187" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C187" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B188" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C188" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B189" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B191" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B192" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B193" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C193" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C194" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B195" s="9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C196" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B197" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C197" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B198" s="9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C198" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B199" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C199" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B200" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C200" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B201" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C201" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B202" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B203" s="9" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C203" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B204" s="9" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B205" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B206" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B207" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B208" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B209" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C209" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B210" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C210" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B211" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C211" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -4847,2723 +4257,2723 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B214" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C214" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>231</v>
-      </c>
       <c r="C216" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C218" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B219" s="9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C219" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B220" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C220" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B221" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C222" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B223" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C223" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B224" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C224" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B225" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C225" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B226" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B227" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C227" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B228" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C228" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B229" s="9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C229" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B230" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C230" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B231" s="9" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C231" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B232" s="9" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B233" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C233" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B234" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B235" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
       <c r="B236" s="18"/>
       <c r="C236" s="12"/>
     </row>
-    <row r="237" spans="2:3">
+    <row r="237" spans="1:3">
       <c r="B237" s="18"/>
       <c r="C237" s="12"/>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B238" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C238" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B239" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C239" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B240" s="9" t="s">
-        <v>254</v>
-      </c>
       <c r="C240" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B241" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C241" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B242" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C242" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B243" s="9" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C243" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C244" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B245" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C245" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B246" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C246" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B247" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C247" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B248" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C248" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B249" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C249" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B250" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C250" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B251" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B252" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C253" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C254" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B255" s="9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C255" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B256" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C256" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B257" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C257" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B258" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B259" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C259" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B260" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B261" s="9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C261" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B262" s="9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C262" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B263" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C263" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B264" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C264" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B265" s="9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C265" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C266" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C268" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C269" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C270" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C271" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C272" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
       <c r="B273" s="18"/>
       <c r="C273" s="12"/>
     </row>
-    <row r="274" spans="2:3">
+    <row r="274" spans="1:3">
       <c r="B274" s="18"/>
       <c r="C274" s="12"/>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B275" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B276" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C276" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B277" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C277" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C278" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C279" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C280" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C281" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C282" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C283" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C284" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C285" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C286" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C287" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C288" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C289" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C290" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C291" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C292" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C293" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
       <c r="B294" s="18"/>
       <c r="C294" s="12"/>
     </row>
-    <row r="295" spans="2:3">
+    <row r="295" spans="1:3">
       <c r="B295" s="18"/>
       <c r="C295" s="12"/>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C296" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C297" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B298" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B298" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="C298" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C299" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C300" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C301" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C302" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C303" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C304" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C305" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C306" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C307" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C308" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C309" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C310" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C311" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C312" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C313" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C314" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C315" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C316" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C317" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C318" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C319" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C320" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C321" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C322" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C323" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C325" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C326" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C327" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C328" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C329" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C330" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C331" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C332" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C333" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="B334" s="18"/>
       <c r="C334" s="12"/>
     </row>
-    <row r="335" spans="2:3">
+    <row r="335" spans="1:3">
       <c r="B335" s="18"/>
       <c r="C335" s="12"/>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C336" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="B338" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B338" s="9" t="s">
-        <v>348</v>
-      </c>
       <c r="C338" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C347" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C348" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C349" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C350" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B351" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C351" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C352" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" s="19" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C353" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
       <c r="B354" s="18"/>
       <c r="C354" s="12"/>
     </row>
-    <row r="355" spans="2:3">
+    <row r="355" spans="1:3">
       <c r="B355" s="18"/>
       <c r="C355" s="12"/>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C356" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C357" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B358" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B358" s="9" t="s">
-        <v>367</v>
-      </c>
       <c r="C358" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B359" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C359" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B360" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C360" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B361" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C361" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B362" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C362" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B363" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B364" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C364" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B365" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C365" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B366" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B367" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C367" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B368" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B369" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C369" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B370" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C370" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B371" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C371" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B372" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C372" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B373" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C373" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B374" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C374" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B375" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C375" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B376" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C376" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B377" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C377" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B378" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C378" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B379" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C379" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B380" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C380" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B381" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C381" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B382" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C382" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B383" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C383" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B384" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C384" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B385" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C385" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B386" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C386" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B387" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C387" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B388" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C388" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B389" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C389" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B390" s="9" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C390" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B391" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C391" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B392" s="9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C392" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B393" s="9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C393" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B394" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C394" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B395" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C395" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B396" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C396" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B397" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C397" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B398" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C398" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B399" s="9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C399" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
       <c r="B400" s="18"/>
       <c r="C400" s="12"/>
     </row>
-    <row r="401" spans="2:3">
+    <row r="401" spans="1:3">
       <c r="B401" s="18"/>
       <c r="C401" s="12"/>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B402" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C402" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B403" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C403" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="B404" s="9" t="s">
-        <v>411</v>
-      </c>
       <c r="C404" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B405" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C405" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B406" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C406" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" s="19" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B407" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C407" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="408" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="B408" s="18"/>
       <c r="C408" s="12"/>
     </row>
-    <row r="409" spans="2:3">
+    <row r="409" spans="1:3">
       <c r="B409" s="18"/>
       <c r="C409" s="12"/>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B410" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C410" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B411" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C411" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B412" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="B412" s="9" t="s">
-        <v>417</v>
-      </c>
       <c r="C412" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B413" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C413" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B414" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C414" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B415" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C415" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B416" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C416" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B417" s="9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C417" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B418" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C418" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B419" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C419" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B420" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C420" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B421" s="9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C421" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B422" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C422" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B423" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C423" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B424" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C424" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B425" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C425" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B426" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C426" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B427" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C427" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B428" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C428" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B429" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C429" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B430" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C430" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B431" s="9" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C431" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B432" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C432" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B433" s="9" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C433" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B434" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C434" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B435" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C435" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B436" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C436" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B437" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C437" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B438" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C438" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B439" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C439" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B440" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C440" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B441" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C441" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B442" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C442" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B443" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C443" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B444" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C444" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B445" s="9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C445" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B446" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C446" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B447" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C447" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B448" s="9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C448" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B449" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C449" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B450" s="9" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C450" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B451" s="9" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C451" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B452" s="9" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C452" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B453" s="9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C453" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B454" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C454" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B455" s="9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C455" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B456" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C456" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B457" s="9" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C457" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B458" s="9" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C458" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B459" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C459" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B460" s="9" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C460" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B461" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C461" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B462" s="9" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C462" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B463" s="9" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C463" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B464" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C464" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B465" s="9" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C465" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B466" s="9" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C466" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B467" s="9" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C467" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B468" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C468" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" s="8" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B469" s="9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C469" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
       <c r="B470" s="18"/>
       <c r="C470" s="12"/>
     </row>
@@ -7574,565 +6984,564 @@
     </row>
     <row r="472" spans="1:3">
       <c r="A472" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B472" s="9" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C472" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B473" s="9" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C473" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B474" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B474" s="9" t="s">
-        <v>477</v>
-      </c>
       <c r="C474" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B475" s="9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C475" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B476" s="9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C476" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B477" s="9" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C477" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B478" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C478" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B479" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C479" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B480" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C480" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" s="8" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B481" s="9" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C481" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="Reverse the array"/>
-    <hyperlink ref="B7" r:id="rId2" display="Find the maximum and minimum element in an array"/>
-    <hyperlink ref="B8" r:id="rId3" display="Find the &quot;Kth&quot; max and min element of an array "/>
-    <hyperlink ref="B9" r:id="rId4" display="Given an array which consists of only 0, 1 and 2. Sort the array without using any sorting algo"/>
-    <hyperlink ref="B10" r:id="rId5" display="Move all the negative elements to one side of the array "/>
-    <hyperlink ref="B11" r:id="rId6" display="Find the Union and Intersection of the two sorted arrays."/>
-    <hyperlink ref="B12" r:id="rId7" display="Write a program to cyclically rotate an array by one."/>
-    <hyperlink ref="B13" r:id="rId8" display="find Largest sum contiguous Subarray [V. IMP]"/>
-    <hyperlink ref="B14" r:id="rId9" display="Minimise the maximum difference between heights [V.IMP]"/>
-    <hyperlink ref="B15" r:id="rId10" display="Minimum no. of Jumps to reach end of an array"/>
-    <hyperlink ref="B16" r:id="rId11" display="find duplicate in an array of N+1 Integers"/>
-    <hyperlink ref="B17" r:id="rId12" display="Merge 2 sorted arrays without using Extra space."/>
-    <hyperlink ref="B18" r:id="rId8" display="Kadane's Algo [V.V.V.V.V IMP]"/>
-    <hyperlink ref="B19" r:id="rId13" display="Merge Intervals"/>
-    <hyperlink ref="B20" r:id="rId14" display="Next Permutation"/>
-    <hyperlink ref="B21" r:id="rId15" display="Count Inversion"/>
-    <hyperlink ref="B22" r:id="rId16" display="Best time to buy and Sell stock"/>
-    <hyperlink ref="B23" r:id="rId17" display="find all pairs on integer array whose sum is equal to given number"/>
-    <hyperlink ref="B24" r:id="rId18" display="find common elements In 3 sorted arrays"/>
-    <hyperlink ref="B25" r:id="rId19" display="Rearrange the array in alternating positive and negative items with O(1) extra space"/>
-    <hyperlink ref="B26" r:id="rId20" display="Find if there is any subarray with sum equal to 0"/>
-    <hyperlink ref="B27" r:id="rId21" display="Find factorial of a large number"/>
-    <hyperlink ref="B28" r:id="rId22" display="find maximum product subarray "/>
-    <hyperlink ref="B29" r:id="rId23" display="Find longest coinsecutive subsequence"/>
-    <hyperlink ref="B30" r:id="rId24" display="Given an array of size n and a number k, fin all elements that appear more than &quot; n/k &quot; times."/>
-    <hyperlink ref="B31" r:id="rId25" display="Maximum profit by buying and selling a share atmost twice"/>
-    <hyperlink ref="B32" r:id="rId26" display="Find whether an array is a subset of another array"/>
-    <hyperlink ref="B33" r:id="rId27" display="Find the triplet that sum to a given value"/>
-    <hyperlink ref="B34" r:id="rId28" display="Trapping Rain water problem"/>
-    <hyperlink ref="B35" r:id="rId29" display="Chocolate Distribution problem"/>
-    <hyperlink ref="B36" r:id="rId30" display="Smallest Subarray with sum greater than a given value"/>
-    <hyperlink ref="B37" r:id="rId31" display="Three way partitioning of an array around a given value"/>
-    <hyperlink ref="B38" r:id="rId32" display="Minimum swaps required bring elements less equal K together"/>
-    <hyperlink ref="B39" r:id="rId33" display="Minimum no. of operations required to make an array palindrome"/>
-    <hyperlink ref="B40" r:id="rId34" display="Median of 2 sorted arrays of equal size"/>
-    <hyperlink ref="B41" r:id="rId35" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId36" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId37" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId38" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId39" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId40" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId41" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId42" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId43" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId44" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId45" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId46" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId47" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId48" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId49" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId50" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId51" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId52" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId53" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId54" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId55" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId56" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId57" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId58" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId59" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId60" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId61" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId62" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId63" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId64" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId65" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId66" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId67" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId68" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId69" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId70" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId71" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId72" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId73" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId74" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId75" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId76" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId77" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId79" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId81" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId82" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId83" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId84" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId85" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId86" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId87" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId88" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId89" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId90" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId91" display="square root of an integer"/>
-    <hyperlink ref="B106" r:id="rId92" display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId93" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId94" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId95" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId96" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId97" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B113" r:id="rId98" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId12" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId99" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId100" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId101" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId102" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId103" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId104" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId105" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId106" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId107" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId108" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId109" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId110" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId111" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId112" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId113" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId109" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId114" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId115" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId116" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId15" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId117" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId118" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B105" r:id="rId119" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B112" r:id="rId120" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B139" r:id="rId121" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId122" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId123" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId124" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId125" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId126" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId127" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId128" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId129" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId130" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId131" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId132" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId133" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId134" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId135" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId136" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId137" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId138" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId139" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId140" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId141" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId142" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId143" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId144" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId145" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId146" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId147" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId148" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId149" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId150" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId151" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId152" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId153" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId154" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId155" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId156" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId157" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId158" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId159" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId160" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId161" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId162" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId163" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId164" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId165" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId166" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId167" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId168" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId169" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId170" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId171" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId172" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId173" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId174" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId175" display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId176" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId177" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId178" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId179" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId180" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId181" display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId182" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId183" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId184" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId185" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId186" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId187" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId188" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId189" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId190" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId191" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId192" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId193" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId194" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId195" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId196" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId197" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId198" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId199" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId200" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId201" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId202" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId203" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId204" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId205" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId206" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId207" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId208" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId209" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId210" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId211" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId212" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId213" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId214" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId215" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId216" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId217" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId218" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId219" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId220" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId221" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId222" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId223" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId224" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId225" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId226" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId227" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId228" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId229" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId230" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId231" display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId232" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId233" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId234" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId29" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId235" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId236" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId237" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId238" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId239" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId240" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId241" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId242" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId243" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId244" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId245" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId246" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId247" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId248" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId249" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId250" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId251" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId253" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId254" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId255" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId256" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId257" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId55" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId258" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId259" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId260" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId261" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId262" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId263" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId264" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId265" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId266" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId267" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId60" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId268" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId269" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId270" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId271" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId272" display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId273" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId274" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId275" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId276" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId277" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId278" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId279" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId280" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId281" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId282" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId283" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId284" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId285" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId286" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId287" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId288" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId289" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId290" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId291" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId292" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId293" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId294" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId295" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId296" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId297" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId154" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId298" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId299" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId300" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId301" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId302" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId303" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId304" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId305" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId306" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId307" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId149" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId308" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId309" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId310" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId242" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId311" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId312" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId78" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId313" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B357" r:id="rId314" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId315" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId316" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId317" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId245" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId318" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId319" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId320" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId321" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId322" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId323" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId324" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId325" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId326" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId327" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId328" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId329" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId330" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId331" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId332" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId333" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId334" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId335" display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId336" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId337" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId338" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId339" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId340" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId341" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId342" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId343" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId344" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId345" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId258" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId250" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId346" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId347" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B396" r:id="rId348" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B395" r:id="rId349" display="Vertex Cover Problem"/>
-    <hyperlink ref="B397" r:id="rId350" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId222" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId351" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId352" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId353" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId354" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId80" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId355" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId356" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId357" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId358" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId359" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId360" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId361" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId362" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId58" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId252" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId363" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId364" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId365" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId366" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId367" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId75" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId53" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId368" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId369" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId370" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId371" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId372" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId373" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId374" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId375" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId376" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId377" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId378" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId379" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId380" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId10" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId381" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId382" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId383" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId384" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId385" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId8" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId386" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId387" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId61" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId388" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId252" display="Partition problem"/>
-    <hyperlink ref="B451" r:id="rId66" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B450" r:id="rId389" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B452" r:id="rId390" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId391" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId392" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId393" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId394" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId25" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId395" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId396" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId397" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId57" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId398" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B469" r:id="rId399" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B468" r:id="rId400" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B467" r:id="rId401" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B466" r:id="rId402" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B465" r:id="rId403" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B464" r:id="rId404" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B463" r:id="rId405" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B472" r:id="rId406" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId407" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId408" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId409" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId410" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId411" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId412" display="Copy set bits in a range"/>
-    <hyperlink ref="B481" r:id="rId413" display="Power Set"/>
-    <hyperlink ref="B479" r:id="rId414" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId415" display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B356" r:id="rId416" display="Create a Graph, print it"/>
-    <hyperlink ref="B2" r:id="rId417" display="Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw "/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" display="Find if there is any subarray with sum equal to 0" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B106" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B379" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>